--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.71</v>
+        <v>3.33</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.77</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:28</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.99</v>
+        <v>3.58</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.1</v>
+        <v>3.83</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:28</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.99</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.67</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:03</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>1.71</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.17</v>
+        <v>1.77</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.42</v>
+        <v>4.1</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>4.99</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>4.67</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:03</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.97</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.62</v>
+        <v>4.17</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:27</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.68</v>
+        <v>3.42</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.72</v>
+        <v>3.42</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:26</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.33</v>
+        <v>4.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.15</v>
+        <v>5.62</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 15:27</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.58</v>
+        <v>4.68</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.83</v>
+        <v>4.72</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 15:26</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.19</v>
+        <v>3.63</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.62</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.97</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.92</v>
+        <v>7.5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.82</v>
+        <v>6.75</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.9</v>
+        <v>13.58</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.36</v>
+        <v>10.25</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.62</v>
+        <v>2.03</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.71</v>
+        <v>2.22</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.79</v>
+        <v>3.68</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.71</v>
+        <v>3.19</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>1.2</v>
+        <v>3.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.27</v>
+        <v>2.97</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>7.5</v>
+        <v>3.92</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>6.75</v>
+        <v>3.82</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>13.58</v>
+        <v>1.9</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>10.25</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.19</v>
+        <v>2.62</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.23</v>
+        <v>2.71</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>16/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q34" t="inlineStr">
+      <c r="T34" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R34" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -3858,6 +3858,98 @@
       <c r="V37" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-b-monchengladbach/zFY7ShD6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45191.85416666666</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:08</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:08</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:08</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-darmstadt/bBbotCs6/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Heidenheim</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>1.63</v>
+        <v>2.59</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.66</v>
+        <v>2.48</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:14</t>
+          <t>19/08/2023 15:08</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.13</v>
+        <v>3.38</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.42</v>
+        <v>3.63</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.88</v>
+        <v>2.68</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5.16</v>
+        <v>2.98</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 14:58</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>19/08/2023 15:14</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>01/07/2023 10:29</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>19/08/2023 15:25</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>01/07/2023 10:27</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:26</t>
-        </is>
-      </c>
       <c r="R4" t="n">
-        <v>4.61</v>
+        <v>4.88</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.52</v>
+        <v>5.16</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 14:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.48</v>
+        <v>4.01</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.74</v>
+        <v>4.16</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>19/08/2023 15:22</t>
+          <t>19/08/2023 15:26</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.8</v>
+        <v>4.61</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.32</v>
+        <v>4.52</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:08</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.63</v>
+        <v>3.74</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>19/08/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>01/07/2023 10:29</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>19/08/2023 15:29</t>
         </is>
       </c>
-      <c r="R6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>01/07/2023 10:31</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:29</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.92</v>
+        <v>3.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>2.73</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.7</v>
+        <v>2.23</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.26</v>
+        <v>2.7</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.4</v>
+        <v>2.56</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>2.58</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.92</v>
+        <v>3.59</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>7.25</v>
+        <v>3.97</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>6.76</v>
+        <v>2.74</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>13</v>
+        <v>2.62</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.59</v>
+        <v>3.92</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.97</v>
+        <v>3.64</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.74</v>
+        <v>3.94</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.62</v>
+        <v>3.11</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.92</v>
+        <v>3.74</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.94</v>
+        <v>3.7</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2689,30 +2689,30 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.02</v>
+        <v>1.4</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.73</v>
+        <v>1.22</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,15 +2720,15 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.61</v>
+        <v>4.92</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.51</v>
+        <v>7.25</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,24 +2736,24 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.23</v>
+        <v>6.76</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.7</v>
+        <v>13</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.03</v>
+        <v>2.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.22</v>
+        <v>2.71</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.86</v>
+        <v>3.54</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.68</v>
+        <v>2.79</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.19</v>
+        <v>2.71</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.62</v>
+        <v>2.03</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.71</v>
+        <v>2.22</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.79</v>
+        <v>3.68</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.71</v>
+        <v>3.19</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3950,6 +3950,742 @@
       <c r="V38" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-darmstadt/bBbotCs6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>21</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:20</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:05</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.77083333334</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-1-fc-koln/2q5xrYCg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45193.64583333334</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:14</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:14</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:14</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-heidenheim/lxP1lzzQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45193.72916666666</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:22</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/eintracht-frankfurt-freiburg/fJ1Uqfrs/</t>
         </is>
       </c>
     </row>
